--- a/total_fitness.xlsx
+++ b/total_fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leont\Documents\Human Performance in Aerospace Environments\DICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92601A27-756F-463B-84F1-AE9AE32D8778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E613F7A-330C-4949-90E4-836CD4EEAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="4530" windowWidth="28800" windowHeight="15460" xr2:uid="{A970E0A9-35BB-46F1-B56B-81D284BC9646}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{A970E0A9-35BB-46F1-B56B-81D284BC9646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,6 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,8 +160,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Exercise</a:t>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Total Exercise each week</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -213,6 +218,142 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
+                <a:srgbClr val="CC00CC"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1649.9583333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1094.1346153846155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1827.3214285714287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1091.578947368421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1063.3928571428571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1324.4117647058824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>791.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326.15384615384613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1114.0384615384614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>891.02941176470586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCD2-4C6B-AF55-E16CD3D3A287}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean - M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
@@ -285,42 +426,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$L$4</c:f>
+              <c:f>Sheet1!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1649.9583333333333</c:v>
+                  <c:v>1830.5147058823529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1094.1346153846155</c:v>
+                  <c:v>2421.3461538461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1827.3214285714287</c:v>
+                  <c:v>2281.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1091.578947368421</c:v>
+                  <c:v>2484.4642857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1063.3928571428571</c:v>
+                  <c:v>2834.53125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1324.4117647058824</c:v>
+                  <c:v>1398.1818181818182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>791.42857142857144</c:v>
+                  <c:v>1877.8125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>326.15384615384613</c:v>
+                  <c:v>1425.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1114.0384615384614</c:v>
+                  <c:v>1689.5555555555557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1988</c:v>
+                  <c:v>1543.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>891.02941176470586</c:v>
+                  <c:v>1577.3571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,20 +469,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCD2-4C6B-AF55-E16CD3D3A287}"/>
+              <c16:uniqueId val="{00000001-FCD2-4C6B-AF55-E16CD3D3A287}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean - M</c:v>
+                  <c:v>Median - F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -349,8 +490,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -421,142 +563,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1830.5147058823529</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2421.3461538461538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2281.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2484.4642857142858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2834.53125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1398.1818181818182</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1877.8125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1425.8333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1689.5555555555557</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1543.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1577.3571428571429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCD2-4C6B-AF55-E16CD3D3A287}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Median - F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -621,8 +627,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -781,7 +788,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -807,6 +814,7 @@
         <c:axId val="1962767839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -824,6 +832,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Total Exercise score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -840,7 +903,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2880,15 +2943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:colOff>358774</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3252,7 +3315,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L14"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
